--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6ADE4B-8C28-433C-8BE1-62080426E601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB4E21-472C-4F1F-9BBF-B11A189DC7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,35 @@
   </si>
   <si>
     <t>/add-address</t>
+  </si>
+  <si>
+    <t>修改订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指定订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/change-order-state</t>
+  </si>
+  <si>
+    <t>/add-order</t>
+  </si>
+  <si>
+    <t>/get-order/{orderID}</t>
+  </si>
+  <si>
+    <t>用户订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -157,6 +186,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -450,6 +485,7 @@
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="19.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -465,12 +501,12 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -482,12 +518,12 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -497,12 +533,12 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -514,12 +550,12 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -529,14 +565,62 @@
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB4E21-472C-4F1F-9BBF-B11A189DC7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F69DD1D-66E3-4B55-9395-83535EBAF455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,26 @@
   </si>
   <si>
     <t>用户订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -191,6 +211,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,22 +496,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="19.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="8.875" style="2"/>
+    <col min="3" max="3" width="19.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="8"/>
+    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -504,9 +528,15 @@
       <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -521,9 +551,15 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -536,9 +572,15 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -553,9 +595,15 @@
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -568,9 +616,15 @@
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -585,9 +639,15 @@
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -600,9 +660,15 @@
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -614,6 +680,12 @@
       </c>
       <c r="E10" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F69DD1D-66E3-4B55-9395-83535EBAF455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520D699C-FE70-4647-9643-1CA0C6257DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>orderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有未接单订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/get-all-missed-order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,11 +700,29 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520D699C-FE70-4647-9643-1CA0C6257DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D8C6F-9566-45F7-AC98-7BB26A173B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看指定订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,6 +154,26 @@
   </si>
   <si>
     <t>/get-all-missed-order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指定用户ID订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指定订单ID订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/get-my-all-order/{clientID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,23 +524,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2"/>
-    <col min="3" max="3" width="19.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="8"/>
-    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="19.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="8"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -541,13 +557,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -564,13 +580,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -585,13 +601,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -608,13 +624,13 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -629,15 +645,15 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -646,19 +662,19 @@
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -667,62 +683,83 @@
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D8C6F-9566-45F7-AC98-7BB26A173B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874B3106-2ADE-4A02-ABF2-D1EA8C546651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,7 +173,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/get-my-all-order/{clientID}</t>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指定服务者ID订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/get-all-my-order/{clientID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/get-all-my-server-order/{serverID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -239,6 +263,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -524,18 +551,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="19.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="8"/>
     <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -564,7 +591,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -587,7 +614,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -609,157 +636,189 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2" t="s">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874B3106-2ADE-4A02-ABF2-D1EA8C546651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E0FC0C-D3DE-4E6A-B934-EFFF7AFE2FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>查询个人信息</t>
+  </si>
+  <si>
+    <t>/get-my-account/{userID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +557,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -644,6 +647,18 @@
       <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E0FC0C-D3DE-4E6A-B934-EFFF7AFE2FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2E8AF-5391-4725-906B-05D0ABFCDCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>/get-my-account/{userID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接单，修改订单服务者和状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/server-get-order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,17 +566,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="8"/>
     <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -829,11 +841,32 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2E8AF-5391-4725-906B-05D0ABFCDCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A558FFB-B444-4A8F-8E62-B0D0668F7960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>/server-get-order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加投诉信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/add-complaint-record</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -278,6 +290,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -566,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -606,7 +621,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -629,7 +644,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -673,7 +688,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -696,7 +711,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -717,7 +732,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -740,7 +755,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -761,7 +776,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -782,7 +797,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
@@ -800,7 +815,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -821,7 +836,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -842,7 +857,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
@@ -859,6 +874,29 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A558FFB-B444-4A8F-8E62-B0D0668F7960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F783473B-DEF1-4397-ACFB-474FD8684F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>/add-complaint-record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加订单评论和评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/add-order-remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -877,26 +889,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -904,7 +937,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F783473B-DEF1-4397-ACFB-474FD8684F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB1349-9EE8-4D4E-961F-CEB630CB2DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,36 @@
   <si>
     <t>/add-order-remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询个人账户操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/get-user-balance/{userID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/client-pay-money/{orderID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/server-paid-money/{orderID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改client的账户金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改server的账户金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
   </si>
 </sst>
 </file>
@@ -280,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -302,9 +332,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -593,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,7 +660,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -656,7 +683,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -677,7 +704,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -699,83 +726,83 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2" t="s">
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
@@ -788,117 +815,117 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
       <c r="G14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2" t="s">
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>12</v>
@@ -910,34 +937,98 @@
         <v>28</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB1349-9EE8-4D4E-961F-CEB630CB2DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE532320-6D92-4466-8835-57A82BB2786C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人的评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/get-my-credit/{userID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -620,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A11" sqref="A11:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1000,26 +1012,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1028,7 +1061,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A11:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/路由功能对照表.xlsx
+++ b/Docs/路由功能对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Practice\CampusLive\Code\CampusLive\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE532320-6D92-4466-8835-57A82BB2786C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85369CA-2A90-44CF-B2FD-A4488C2C4CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,94 @@
   <si>
     <t>/get-my-credit/{userID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数JSON对照文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回JSON对照文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginJson.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdentityVerifyJSON.txt</t>
+  </si>
+  <si>
+    <t>AddAddressJSON.txt</t>
+  </si>
+  <si>
+    <t>ChangeOrderStateJSON.txt</t>
+  </si>
+  <si>
+    <t>AddOrderJSON.txt</t>
+  </si>
+  <si>
+    <t>ServerGetOrderJSON.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddOrderRemarkJSON.txt</t>
+  </si>
+  <si>
+    <t>AddComplaintRecordJSON.txt</t>
+  </si>
+  <si>
+    <t>RAddComplaintRecordJSON.txt</t>
+  </si>
+  <si>
+    <t>RAddAddressJSON.txt</t>
+  </si>
+  <si>
+    <t>RGetAddressJSON.txt</t>
+  </si>
+  <si>
+    <t>RGetMyAccountJSON.txt</t>
+  </si>
+  <si>
+    <t>RGetUserBalanceJSON.txt</t>
+  </si>
+  <si>
+    <t>RIdentityVerifyJSON.txt</t>
+  </si>
+  <si>
+    <t>RLoginJSON.txt</t>
+  </si>
+  <si>
+    <t>RAddOrderJSON.txt</t>
+  </si>
+  <si>
+    <t>RAddOrderRemarkJSON.txt</t>
+  </si>
+  <si>
+    <t>RChangeOrderStateJOSN.txt</t>
+  </si>
+  <si>
+    <t>RClientPayMoneyJSON.txt</t>
+  </si>
+  <si>
+    <t>RGetAllMissedOrderJSON.txt</t>
+  </si>
+  <si>
+    <t>RGetAllMyOrderJSON.txt</t>
+  </si>
+  <si>
+    <t>RGetAllMyServerOrderJSON.txt</t>
+  </si>
+  <si>
+    <t>RGetMyCreditJSON.txt</t>
+  </si>
+  <si>
+    <t>RGetOrderJSON.txt</t>
+  </si>
+  <si>
+    <t>RServerGetOrderJSON.txt</t>
+  </si>
+  <si>
+    <t>RServerPaidMoneyJSON.txt</t>
   </si>
 </sst>
 </file>
@@ -322,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -344,6 +432,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -632,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A21"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -645,10 +736,13 @@
     <col min="3" max="3" width="29.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="8"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,12 +761,18 @@
       <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -691,11 +791,17 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -712,11 +818,17 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -734,12 +846,15 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -755,12 +870,15 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -778,12 +896,15 @@
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -800,11 +921,17 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -823,11 +950,17 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -844,11 +977,17 @@
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -864,12 +1003,15 @@
       <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -882,12 +1024,15 @@
       <c r="E14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
@@ -903,12 +1048,15 @@
       <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
@@ -924,12 +1072,15 @@
       <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -946,11 +1097,17 @@
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
@@ -967,11 +1124,17 @@
         <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
@@ -987,12 +1150,15 @@
       <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1008,12 +1174,15 @@
       <c r="F20" t="s">
         <v>30</v>
       </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
@@ -1029,11 +1198,14 @@
       <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>49</v>
       </c>
@@ -1053,7 +1225,13 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
